--- a/biology/Médecine/Cornet_nasal_inférieur/Cornet_nasal_inférieur.xlsx
+++ b/biology/Médecine/Cornet_nasal_inférieur/Cornet_nasal_inférieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cornet_nasal_inf%C3%A9rieur</t>
+          <t>Cornet_nasal_inférieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cornet nasal inférieur (ou cornet inférieur ou os turbinatum) est un os pair de la face situé à la partie inférieure des fosses nasales. Il forme le méat nasal inférieur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cornet_nasal_inf%C3%A9rieur</t>
+          <t>Cornet_nasal_inférieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,84 +523,230 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cornet nasal inférieur est une lamelle osseuse enroulée sur elle-même verticalement et allongée d'avant en arrière.
 Il présente 2 faces, un bord supérieur et un bord inférieur.
-Face médiale
-La face médiale est convexe et fait face à la cloison des fosses nasales. Elle est marquée par de nombreux sillons correspondant aux vaisseaux sanguins.
-Face latérale
-La face latérale est concave. C'est la limite du méat nasal inférieur.
-Bord supérieur
-Le bord supérieur est mince et irrégulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cornet_nasal_inférieur</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornet_nasal_inf%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Face médiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face médiale est convexe et fait face à la cloison des fosses nasales. Elle est marquée par de nombreux sillons correspondant aux vaisseaux sanguins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cornet_nasal_inférieur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornet_nasal_inf%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Face latérale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face latérale est concave. C'est la limite du méat nasal inférieur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cornet_nasal_inférieur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornet_nasal_inf%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bord supérieur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord supérieur est mince et irrégulier.
 Dans son quart antérieur, il s'articule avec la crête conchale du maxillaire.
 La portion moyenne croise le hiatus maxillaire et présente trois processus :
 le processus lacrymal du cornet nasal inférieur (ou apophyse lacrymale ou apophyse nasale ou apophyse unguéale du cornet nasal inférieur) qui s'articule avec le bord inférieur de l'os lacrymal ; par ses bords antérieur et postérieur il contribue à former le canal lacrymo-nasal.
 le processus maxillaire du cornet nasal inférieur qui se recourbe en dehors et en bas du hiatus maxillaire qu'il obture en partie ; son bord postérieur s'articule avec le processus maxillaire de l'os palatin ;
 le processus ethmoïdal du cornet nasal inférieur qui s'articule avec le processus unciforme de l'os ethmoïde.
 Dans son quart postérieur, il s'articule avec la crête conchale de l'os palatin.
-Bord inférieur
-Le bord inférieur est libre.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cornet_nasal_inf%C3%A9rieur</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cornet_nasal_inférieur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cornet_nasal_inf%C3%A9rieur</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bord inférieur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord inférieur est libre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cornet_nasal_inférieur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornet_nasal_inf%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Rapport</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cornet nasal inférieur est entièrement recouvert par la muqueuse nasale et les vaisseaux et nerfs de celle-ci.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cornet_nasal_inf%C3%A9rieur</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cornet_nasal_inférieur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cornet_nasal_inf%C3%A9rieur</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cornet nasal inférieur est d'origine membraneuse avec un seul point d'ossification qui apparaît entre le 3ème et le 5ème mois de vie intra-utérine.
  Portail de l’anatomie   Portail de la médecine                    </t>
